--- a/biology/Botanique/Axel_Gudbrand_Blytt/Axel_Gudbrand_Blytt.xlsx
+++ b/biology/Botanique/Axel_Gudbrand_Blytt/Axel_Gudbrand_Blytt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axel Gudbrand Blytt né le 19 mai 1843 et mort le 18 juillet 1898 à Christiania est un botaniste norvégien.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À partir de 1863, il travaille à l'université de Christiana comme conservateur, puis à partir de 1880 il devient professeur.
 Il est le fils de Matthias Numsen Blytt (1789-1862) qui était aussi botaniste et qui a publié Flora Norges en 1861. Après sa mort en 1862, c'est Axel Blytt qui reprit le travail de son père (les volumes 2 et 3 ont été publiés en 1874 et 1876).
 Aujourd'hui, il est surtout connu pour sa théorie de 1876 sur l'immigration de la flore norvégienne. Dans cette théorie, il divise la flore en six parties qui ont immigré à différentes périodes climatiques. Une grande partie de cette théorie a été réfutée par la suite, mais c'était la théorie en place lorsque Rutger Sernander développa la notion de Blytt-Sernanders ce qu'on appelle aujourd'hui la théorie de l'échange climatique.
 En 1869, il est élu à l'Académie norvégienne des sciences et des lettres.
-La même année, il reçoit la médaille d'or du prince héritier[1] pour son travail sur la végétation le long du Sognefjord.
+La même année, il reçoit la médaille d'or du prince héritier pour son travail sur la végétation le long du Sognefjord.
 Après une visite d'étude en Allemagne de 1877 à 1878, il s'est surtout consacré à la mycologie.
 Il est enterré dans la sépulture familiale à la section sud du cimetière de Notre-Sauveur (Oslo).
 </t>
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Axel Blytt (1864). Botanisk Reise i Vallers og de tilgrænsende Egne. Johan Dahl, Christiania, 149 pages.
 A. Blytt (1869). Om Vegetationsforholdene ved Sognefjorden. Johan Dahl, Christiania, 223 pages.
